--- a/bots/crawl_ch/output/clothes_2022-08-07.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-07.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3377,12 +3377,12 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz L 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen String schwarz L - Online kein Bestand 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-07 07:01:51</t>
+          <t>2022-08-07 20:59:15</t>
         </is>
       </c>
     </row>
